--- a/data/score_sheet.xlsx
+++ b/data/score_sheet.xlsx
@@ -14,7 +14,691 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="684">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>child_name</t>
+  </si>
+  <si>
+    <t>pic1</t>
+  </si>
+  <si>
+    <t>pic2</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>pic6</t>
+  </si>
+  <si>
+    <t>pic7</t>
+  </si>
+  <si>
+    <t>pic8</t>
+  </si>
+  <si>
+    <t>pic9</t>
+  </si>
+  <si>
+    <t>pic10</t>
+  </si>
+  <si>
+    <t>eng1_a</t>
+  </si>
+  <si>
+    <t>eng1_b</t>
+  </si>
+  <si>
+    <t>eng2_a</t>
+  </si>
+  <si>
+    <t>eng2_b</t>
+  </si>
+  <si>
+    <t>eng3_a</t>
+  </si>
+  <si>
+    <t>eng3_b</t>
+  </si>
+  <si>
+    <t>eng4_a</t>
+  </si>
+  <si>
+    <t>eng4_b</t>
+  </si>
+  <si>
+    <t>eng5_a</t>
+  </si>
+  <si>
+    <t>eng5_b</t>
+  </si>
+  <si>
+    <t>urd1_a</t>
+  </si>
+  <si>
+    <t>urd1_b</t>
+  </si>
+  <si>
+    <t>urd1_c</t>
+  </si>
+  <si>
+    <t>urd2_a</t>
+  </si>
+  <si>
+    <t>urd2_b</t>
+  </si>
+  <si>
+    <t>urd3_a</t>
+  </si>
+  <si>
+    <t>urd3_b</t>
+  </si>
+  <si>
+    <t>urd4_a</t>
+  </si>
+  <si>
+    <t>urd4_b</t>
+  </si>
+  <si>
+    <t>urd5_a</t>
+  </si>
+  <si>
+    <t>urd5_b</t>
+  </si>
+  <si>
+    <t>urd5_c</t>
+  </si>
+  <si>
+    <t>mth1</t>
+  </si>
+  <si>
+    <t>mth2</t>
+  </si>
+  <si>
+    <t>mth3_a</t>
+  </si>
+  <si>
+    <t>mth3_b</t>
+  </si>
+  <si>
+    <t>mth3_c</t>
+  </si>
+  <si>
+    <t>mth3_d</t>
+  </si>
+  <si>
+    <t>mth4_a</t>
+  </si>
+  <si>
+    <t>mth4_b</t>
+  </si>
+  <si>
+    <t>mth5</t>
+  </si>
+  <si>
+    <t>mth6</t>
+  </si>
+  <si>
+    <t>mth7_a</t>
+  </si>
+  <si>
+    <t>mth7_b</t>
+  </si>
+  <si>
+    <t>wrd1</t>
+  </si>
+  <si>
+    <t>wrd2</t>
+  </si>
+  <si>
+    <t>wrd3</t>
+  </si>
+  <si>
+    <t>wrd4</t>
+  </si>
+  <si>
+    <t>wrd5</t>
+  </si>
+  <si>
+    <t>wrd6</t>
+  </si>
+  <si>
+    <t>wrd7</t>
+  </si>
+  <si>
+    <t>wrd8</t>
+  </si>
+  <si>
+    <t>wrd9</t>
+  </si>
+  <si>
+    <t>wrd10</t>
+  </si>
+  <si>
+    <t>wrd11</t>
+  </si>
+  <si>
+    <t>wrd12</t>
+  </si>
+  <si>
+    <t>wrd13</t>
+  </si>
+  <si>
+    <t>wrd14</t>
+  </si>
+  <si>
+    <t>wrd15</t>
+  </si>
+  <si>
+    <t>wrd16</t>
+  </si>
+  <si>
+    <t>wrd17</t>
+  </si>
+  <si>
+    <t>wrd18</t>
+  </si>
+  <si>
+    <t>wrd19</t>
+  </si>
+  <si>
+    <t>wrd20</t>
+  </si>
+  <si>
+    <t>wrd21</t>
+  </si>
+  <si>
+    <t>wrd22</t>
+  </si>
+  <si>
+    <t>wrd23</t>
+  </si>
+  <si>
+    <t>wrd24</t>
+  </si>
+  <si>
+    <t>wrd25</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Child Name</t>
+  </si>
+  <si>
+    <t>Picture 1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
+  <si>
+    <t>Picture 3</t>
+  </si>
+  <si>
+    <t>Picture 4</t>
+  </si>
+  <si>
+    <t>Picture 5</t>
+  </si>
+  <si>
+    <t>Picture 6</t>
+  </si>
+  <si>
+    <t>Picture 7</t>
+  </si>
+  <si>
+    <t>Picture 8</t>
+  </si>
+  <si>
+    <t>Picture 9</t>
+  </si>
+  <si>
+    <t>Picture 10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Word 1</t>
+  </si>
+  <si>
+    <t>Word 2</t>
+  </si>
+  <si>
+    <t>Word 3</t>
+  </si>
+  <si>
+    <t>Word 4</t>
+  </si>
+  <si>
+    <t>Word 5</t>
+  </si>
+  <si>
+    <t>Word 6</t>
+  </si>
+  <si>
+    <t>Word 7</t>
+  </si>
+  <si>
+    <t>Word 8</t>
+  </si>
+  <si>
+    <t>Word 9</t>
+  </si>
+  <si>
+    <t>Word 10</t>
+  </si>
+  <si>
+    <t>Word 11</t>
+  </si>
+  <si>
+    <t>Word 12</t>
+  </si>
+  <si>
+    <t>Word 13</t>
+  </si>
+  <si>
+    <t>Word 14</t>
+  </si>
+  <si>
+    <t>Word 15</t>
+  </si>
+  <si>
+    <t>Word 16</t>
+  </si>
+  <si>
+    <t>Word 17</t>
+  </si>
+  <si>
+    <t>Word 18</t>
+  </si>
+  <si>
+    <t>Word 19</t>
+  </si>
+  <si>
+    <t>Word 20</t>
+  </si>
+  <si>
+    <t>Word 21</t>
+  </si>
+  <si>
+    <t>Word 22</t>
+  </si>
+  <si>
+    <t>Word 23</t>
+  </si>
+  <si>
+    <t>Word 24</t>
+  </si>
+  <si>
+    <t>Word 25</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -1430,1024 +2114,1024 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>529</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>530</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>532</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>533</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>539</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>541</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>542</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>544</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>546</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>547</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>548</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>476</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>549</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="C23" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>479</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>553</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>481</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>554</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D26" t="s">
-        <v>402</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>555</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>483</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>556</v>
       </c>
       <c r="C28" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>557</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>485</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>558</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>486</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="C31" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>487</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>560</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>488</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>561</v>
       </c>
       <c r="C33" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>489</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>562</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>490</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>563</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>564</v>
       </c>
       <c r="C36" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>565</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>493</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>566</v>
       </c>
       <c r="C38" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>494</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>495</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>568</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>496</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>569</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D41" t="s">
-        <v>417</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>497</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>570</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>571</v>
       </c>
       <c r="C43" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>647</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>499</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>572</v>
       </c>
       <c r="C44" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>500</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>573</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>501</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>502</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
+        <v>575</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D47" t="s">
-        <v>423</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>503</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D48" t="s">
-        <v>424</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>504</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>577</v>
       </c>
       <c r="C49" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D49" t="s">
-        <v>425</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>578</v>
       </c>
       <c r="C50" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D50" t="s">
-        <v>426</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>506</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>579</v>
       </c>
       <c r="C51" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D51" t="s">
-        <v>427</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>507</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>580</v>
       </c>
       <c r="C52" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>508</v>
       </c>
       <c r="B53" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
+        <v>582</v>
       </c>
       <c r="C54" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>510</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>584</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D56" t="s">
-        <v>432</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>585</v>
       </c>
       <c r="C57" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>513</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>586</v>
       </c>
       <c r="C58" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>514</v>
       </c>
       <c r="B59" t="s">
-        <v>359</v>
+        <v>587</v>
       </c>
       <c r="C59" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>515</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>588</v>
       </c>
       <c r="C60" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D60" t="s">
-        <v>436</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>589</v>
       </c>
       <c r="C61" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s">
-        <v>362</v>
+        <v>590</v>
       </c>
       <c r="C62" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
+        <v>591</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D63" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s">
-        <v>365</v>
+        <v>593</v>
       </c>
       <c r="C65" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D65" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="B66" t="s">
-        <v>366</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>522</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>595</v>
       </c>
       <c r="C67" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D67" t="s">
-        <v>443</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s">
-        <v>368</v>
+        <v>596</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D68" t="s">
-        <v>444</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>597</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D69" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>598</v>
       </c>
       <c r="C70" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D70" t="s">
-        <v>446</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s">
-        <v>371</v>
+        <v>599</v>
       </c>
       <c r="C71" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D71" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>527</v>
       </c>
       <c r="B72" t="s">
-        <v>372</v>
+        <v>600</v>
       </c>
       <c r="C72" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D72" t="s">
-        <v>448</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s">
-        <v>373</v>
+        <v>601</v>
       </c>
       <c r="C73" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -2461,24 +3145,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
-        <v>452</v>
+        <v>680</v>
       </c>
       <c r="C1" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
